--- a/assets/files/excel/24521.xlsx
+++ b/assets/files/excel/24521.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="CNF97VYVdQXnO2D3ycSxIjYtBNDTqTo7HrMpPAWM1kGfJSqtsQmaEj9WopGgsBdN1FEPx6TAmr+Z9EXotE4MGg==" workbookSaltValue="iTtUei7QvMgOKeJvqwtVug==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Инвестиции в валюту" sheetId="2" r:id="rId1"/>
@@ -1339,9 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1569,15 +1567,15 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="str">
-        <f>IFERROR(IF('Инвестиции в валюту'!C17='Инвестиции в валюту (решение)'!C17,"верно","неверно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Инвестиции в валюту'!C17-'Инвестиции в валюту (решение)'!C17)&lt;1,"верно","неверно"),"не верно")</f>
         <v>неверно</v>
       </c>
       <c r="D18" t="str">
-        <f>IFERROR(IF('Инвестиции в валюту'!D17='Инвестиции в валюту (решение)'!D17,"верно","неверно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Инвестиции в валюту'!D17-'Инвестиции в валюту (решение)'!D17)&lt;1,"верно","неверно"),"не верно")</f>
         <v>неверно</v>
       </c>
       <c r="E18" t="str">
-        <f>IFERROR(IF('Инвестиции в валюту'!E17='Инвестиции в валюту (решение)'!E17,"верно","неверно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Инвестиции в валюту'!E17-'Инвестиции в валюту (решение)'!E17)&lt;1,"верно","неверно"),"не верно")</f>
         <v>неверно</v>
       </c>
     </row>
